--- a/Search.xlsx
+++ b/Search.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\QA\DataMisfitsProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\QA\PnTFinalProject-DataMisfits-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DA3D1-21F3-4A31-9DAD-2AB34A2CAE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875E2165-6666-40F8-B1C3-6042BBD6A053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Search.xlsx
+++ b/Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\QA\PnTFinalProject-DataMisfits-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875E2165-6666-40F8-B1C3-6042BBD6A053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB50B83D-6124-40D4-921E-D65CC4C6A463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,7 +366,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>11375</v>
+        <v>11435</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
